--- a/Python/redcap/CNBP-REDCap Matrix.xlsx
+++ b/Python/redcap/CNBP-REDCap Matrix.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Configuration!$A$1:$L$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Configuration!$A$1:$M$150</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="171">
   <si>
     <t>admission</t>
   </si>
@@ -497,9 +497,6 @@
     <t>redcap_project (3)</t>
   </si>
   <si>
-    <t>table_name (4)</t>
-  </si>
-  <si>
     <t>database (5)</t>
   </si>
   <si>
@@ -513,23 +510,46 @@
   </si>
   <si>
     <t>is_repeatable_instrument (9)</t>
+  </si>
+  <si>
+    <t>database_table_name (4)</t>
+  </si>
+  <si>
+    <t>EighteenMonthAssessments</t>
+  </si>
+  <si>
+    <t>ThirtySixMonthAssessments</t>
+  </si>
+  <si>
+    <t>ThirtySixMonthStatus</t>
+  </si>
+  <si>
+    <t>ThreeYearAuditoryAssessments</t>
+  </si>
+  <si>
+    <t>ThreeYearFamilyInfo</t>
+  </si>
+  <si>
+    <t>ThreeYearMedicalHistories</t>
+  </si>
+  <si>
+    <t>ThreeYearPrimaryCaregivers</t>
+  </si>
+  <si>
+    <t>ThreeYearVisionAssessments</t>
+  </si>
+  <si>
+    <t>redcap_form_name (10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -552,17 +572,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -574,20 +589,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -865,7 +877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,47 +892,51 @@
     <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="108.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -939,10 +955,10 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
@@ -951,12 +967,15 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="L2" t="str">
-        <f>"["&amp;IF(A2="","None",A2)&amp;","&amp;IF(B2="","None",B2)&amp;","&amp;IF(C2="","None",C2)&amp;","&amp;IF(D2="","None",D2)&amp;",'"&amp;IF(E2="","None",E2)&amp;"',"&amp;IF(F2="","None",F2)&amp;","&amp;IF(G2="","None",G2)&amp;","&amp;IF(H2="","None",H2)&amp;","&amp;IF(I2="","None","["&amp;I2&amp;"]")&amp;","&amp;IF(J2="","None",J2)&amp;"]"&amp;","</f>
-        <v>[1,1,0,1,'admission',1,1,1,[2,3],0],</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="str">
+        <f>"["&amp;IF(A2="","None",A2)&amp;","&amp;IF(B2="","None",B2)&amp;","&amp;IF(C2="","None",C2)&amp;","&amp;IF(D2="","None",D2)&amp;",'"&amp;IF(E2="","None",E2)&amp;"',"&amp;IF(F2="","None",F2)&amp;","&amp;IF(G2="","None",G2)&amp;","&amp;IF(H2="","None",H2)&amp;","&amp;IF(I2="","None","["&amp;I2&amp;"]")&amp;","&amp;IF(J2="","None",J2)&amp;",'"&amp;IF(K2="","None",K2)&amp;"']"&amp;","</f>
+        <v>[1,1,0,1,'admission',1,1,1,[2,3],0,'admission'],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -975,21 +994,24 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L66" si="0">"["&amp;IF(A3="","None",A3)&amp;","&amp;IF(B3="","None",B3)&amp;","&amp;IF(C3="","None",C3)&amp;","&amp;IF(D3="","None",D3)&amp;",'"&amp;IF(E3="","None",E3)&amp;"',"&amp;IF(F3="","None",F3)&amp;","&amp;IF(G3="","None",G3)&amp;","&amp;IF(H3="","None",H3)&amp;","&amp;IF(I3="","None","["&amp;I3&amp;"]")&amp;","&amp;IF(J3="","None",J3)&amp;"]"&amp;","</f>
-        <v>[2,1,0,1,'admissionChart',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M66" si="0">"["&amp;IF(A3="","None",A3)&amp;","&amp;IF(B3="","None",B3)&amp;","&amp;IF(C3="","None",C3)&amp;","&amp;IF(D3="","None",D3)&amp;",'"&amp;IF(E3="","None",E3)&amp;"',"&amp;IF(F3="","None",F3)&amp;","&amp;IF(G3="","None",G3)&amp;","&amp;IF(H3="","None",H3)&amp;","&amp;IF(I3="","None","["&amp;I3&amp;"]")&amp;","&amp;IF(J3="","None",J3)&amp;",'"&amp;IF(K3="","None",K3)&amp;"']"&amp;","</f>
+        <v>[2,1,0,1,'admissionChart',1,2,2,None,1,'admissionChart'],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1008,21 +1030,24 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="L4" t="str">
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>[3,1,0,1,'admissionstate',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[3,1,0,1,'admissionstate',1,2,2,None,1,'admissionstate'],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1041,21 +1066,24 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="L5" t="str">
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>[4,1,0,1,'Born',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[4,1,0,1,'Born',1,2,2,None,1,'Born'],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1074,21 +1102,24 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="L6" t="str">
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>[5,1,0,1,'Borndiagnosis',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[5,1,0,1,'Borndiagnosis',1,2,2,None,1,'Borndiagnosis'],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1107,21 +1138,24 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="L7" t="str">
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>[6,1,0,1,'Caffeine',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[6,1,0,1,'Caffeine',1,2,2,None,1,'Caffeine'],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1140,21 +1174,24 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="L8" t="str">
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>[7,1,0,1,'Congenitalanomalies',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[7,1,0,1,'Congenitalanomalies',1,2,2,None,1,'Congenitalanomalies'],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1173,21 +1210,24 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="L9" t="str">
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>[8,1,0,1,'Culturestransfusions',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[8,1,0,1,'Culturestransfusions',1,2,2,None,1,'Culturestransfusions'],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1206,21 +1246,24 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="L10" t="str">
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>[9,1,0,1,'Diagnosisofinfection',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[9,1,0,1,'Diagnosisofinfection',1,2,2,None,1,'Diagnosisofinfection'],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1239,21 +1282,24 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="L11" t="str">
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>[10,1,0,1,'Diagnosisprocedures',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[10,1,0,1,'Diagnosisprocedures',1,2,2,None,1,'Diagnosisprocedures'],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1272,21 +1318,24 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="2">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
         <v>2</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="L12" t="str">
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>[11,1,0,1,'Discharge',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[11,1,0,1,'Discharge',1,2,2,None,1,'Discharge'],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1305,21 +1354,24 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="L13" t="str">
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>[12,1,0,1,'Encephalopathy',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[12,1,0,1,'Encephalopathy',1,2,2,None,1,'Encephalopathy'],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1338,21 +1390,24 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="L14" t="str">
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>[13,1,0,1,'Eol',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[13,1,0,1,'Eol',1,2,2,None,1,'Eol'],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1371,21 +1426,24 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
         <v>2</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="L15" t="str">
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="str">
         <f t="shared" si="0"/>
-        <v>[14,1,0,1,'Epiqcentrallines',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[14,1,0,1,'Epiqcentrallines',1,2,2,None,1,'Epiqcentrallines'],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1404,21 +1462,24 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="2">
-        <v>2</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="L16" t="str">
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" si="0"/>
-        <v>[15,1,0,1,'Formreviewed',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[15,1,0,1,'Formreviewed',1,2,2,None,1,'Formreviewed'],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1437,21 +1498,24 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="2">
-        <v>2</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
         <v>2</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="L17" t="str">
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="0"/>
-        <v>[16,1,0,1,'Ivh',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[16,1,0,1,'Ivh',1,2,2,None,1,'Ivh'],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1470,21 +1534,24 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="2">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="L18" t="str">
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" si="0"/>
-        <v>[17,1,0,1,'Nropexams',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[17,1,0,1,'Nropexams',1,2,2,None,1,'Nropexams'],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1503,21 +1570,24 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="2">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="L19" t="str">
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" t="str">
         <f t="shared" si="0"/>
-        <v>[18,1,0,1,'Nroptreatments',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[18,1,0,1,'Nroptreatments',1,2,2,None,1,'Nroptreatments'],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1536,21 +1606,24 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="2">
-        <v>2</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
         <v>2</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="L20" t="str">
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" t="str">
         <f t="shared" si="0"/>
-        <v>[19,1,0,1,'Ntiss1',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[19,1,0,1,'Ntiss1',1,2,2,None,1,'Ntiss1'],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1569,21 +1642,24 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="L21" t="str">
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="str">
         <f t="shared" si="0"/>
-        <v>[20,1,0,1,'Ntiss3',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[20,1,0,1,'Ntiss3',1,2,2,None,1,'Ntiss3'],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1602,21 +1678,24 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="2">
-        <v>2</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
         <v>2</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="L22" t="str">
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="str">
         <f t="shared" si="0"/>
-        <v>[21,1,0,1,'Otherdiagnosis',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[21,1,0,1,'Otherdiagnosis',1,2,2,None,1,'Otherdiagnosis'],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1635,21 +1714,24 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
         <v>2</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="L23" t="str">
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="str">
         <f t="shared" si="0"/>
-        <v>[22,1,0,1,'Pdatreatment',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[22,1,0,1,'Pdatreatment',1,2,2,None,1,'Pdatreatment'],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1668,21 +1750,24 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" s="2">
-        <v>2</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
         <v>2</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="L24" t="str">
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" t="str">
         <f t="shared" si="0"/>
-        <v>[23,1,0,1,'Posbloodcsfcultures',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[23,1,0,1,'Posbloodcsfcultures',1,2,2,None,1,'Posbloodcsfcultures'],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1701,21 +1786,24 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25" s="2">
-        <v>2</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="L25" t="str">
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="str">
         <f t="shared" si="0"/>
-        <v>[24,1,0,1,'Postnatalsteroids',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[24,1,0,1,'Postnatalsteroids',1,2,2,None,1,'Postnatalsteroids'],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1734,21 +1822,24 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" s="2">
-        <v>2</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
         <v>2</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="L26" t="str">
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" t="str">
         <f t="shared" si="0"/>
-        <v>[25,1,0,1,'Posttransfer',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[25,1,0,1,'Posttransfer',1,2,2,None,1,'Posttransfer'],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1767,21 +1858,24 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="2">
-        <v>2</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
         <v>2</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="L27" t="str">
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="str">
         <f t="shared" si="0"/>
-        <v>[26,1,0,1,'Rop',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[26,1,0,1,'Rop',1,2,2,None,1,'Rop'],</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1800,21 +1894,24 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" s="2">
-        <v>2</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
         <v>2</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
-      <c r="L28" t="str">
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="str">
         <f t="shared" si="0"/>
-        <v>[27,1,0,1,'Screenlog',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[27,1,0,1,'Screenlog',1,2,2,None,1,'Screenlog'],</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1833,21 +1930,24 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" s="2">
-        <v>2</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
         <v>2</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
-      <c r="L29" t="str">
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" t="str">
         <f t="shared" si="0"/>
-        <v>[28,1,0,1,'Snap',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[28,1,0,1,'Snap',1,2,2,None,1,'Snap'],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1866,21 +1966,24 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="2">
-        <v>2</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
         <v>2</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
-      <c r="L30" t="str">
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" t="str">
         <f t="shared" si="0"/>
-        <v>[29,1,0,1,'Surfactant',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[29,1,0,1,'Surfactant',1,2,2,None,1,'Surfactant'],</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1899,21 +2002,24 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="2">
-        <v>2</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
         <v>2</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="L31" t="str">
+      <c r="K31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" t="str">
         <f t="shared" si="0"/>
-        <v>[30,1,0,1,'Transport',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[30,1,0,1,'Transport',1,2,2,None,1,'Transport'],</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1932,21 +2038,24 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" s="2">
-        <v>2</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
         <v>2</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
-      <c r="L32" t="str">
+      <c r="K32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="str">
         <f t="shared" si="0"/>
-        <v>[31,1,0,1,'Trips',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[31,1,0,1,'Trips',1,2,2,None,1,'Trips'],</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1965,21 +2074,24 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="2">
-        <v>2</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
         <v>2</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
-      <c r="L33" t="str">
+      <c r="K33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" t="str">
         <f t="shared" si="0"/>
-        <v>[32,1,0,1,'Validate',1,2,2,None,1],</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[32,1,0,1,'Validate',1,2,2,None,1,'Validate'],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1998,10 +2110,10 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34">
         <v>3</v>
       </c>
       <c r="I34" t="s">
@@ -2010,12 +2122,15 @@
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="L34" t="str">
+      <c r="K34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="str">
         <f t="shared" si="0"/>
-        <v>[33,1,0,2,'Baby',1,3,3,[4,5],0],</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[33,1,0,2,'Baby',1,3,3,[4,5],0,'Baby'],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2034,21 +2149,24 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35">
         <v>3</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35">
         <v>3</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
-      <c r="L35" t="str">
+      <c r="K35" t="s">
+        <v>33</v>
+      </c>
+      <c r="M35" t="str">
         <f t="shared" si="0"/>
-        <v>[34,1,0,2,'Bornbaby',1,3,3,None,1],</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[34,1,0,2,'Bornbaby',1,3,3,None,1,'Bornbaby'],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2067,21 +2185,24 @@
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
         <v>3</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36">
         <v>3</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
-      <c r="L36" t="str">
+      <c r="K36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" t="str">
         <f t="shared" si="0"/>
-        <v>[35,1,0,2,'Epiq',1,3,3,None,1],</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[35,1,0,2,'Epiq',1,3,3,None,1,'Epiq'],</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2100,21 +2221,24 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <v>3</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37">
         <v>3</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="L37" t="str">
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" t="str">
         <f t="shared" si="0"/>
-        <v>[36,1,0,2,'Resuscitation',1,3,3,None,1],</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[36,1,0,2,'Resuscitation',1,3,3,None,1,'Resuscitation'],</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2133,21 +2257,24 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38">
         <v>3</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38">
         <v>3</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="L38" t="str">
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" t="str">
         <f t="shared" si="0"/>
-        <v>[37,1,0,2,'Antenatalinterventions',1,3,3,None,1],</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[37,1,0,2,'Antenatalinterventions',1,3,3,None,1,'Antenatalinterventions'],</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2166,21 +2293,24 @@
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39">
         <v>4</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39">
         <v>4</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="L39" t="str">
+      <c r="K39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" t="str">
         <f t="shared" si="0"/>
-        <v>[38,1,0,3,'Mother',1,4,4,None,0],</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[38,1,0,3,'Mother',1,4,4,None,0,'Mother'],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2199,21 +2329,24 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <v>4</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40">
         <v>4</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
-      <c r="L40" t="str">
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" t="str">
         <f t="shared" si="0"/>
-        <v>[39,1,0,3,'Antenatalintervention',1,4,4,None,1],</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[39,1,0,3,'Antenatalintervention',1,4,4,None,1,'Antenatalintervention'],</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2232,21 +2365,24 @@
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
         <v>4</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41">
         <v>4</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="L41" t="str">
+      <c r="K41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" t="str">
         <f t="shared" si="0"/>
-        <v>[40,1,0,3,'Bornmother',1,4,4,None,1],</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[40,1,0,3,'Bornmother',1,4,4,None,1,'Bornmother'],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2265,10 +2401,10 @@
       <c r="F42">
         <v>2</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42">
         <v>6</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42">
         <v>5</v>
       </c>
       <c r="I42">
@@ -2277,12 +2413,15 @@
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="L42" t="str">
+      <c r="K42" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" t="str">
         <f t="shared" si="0"/>
-        <v>[41,1,0,4,'Patients',2,6,5,[7],0],</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[41,1,0,4,'Patients',2,6,5,[7],0,'Patients'],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2301,21 +2440,24 @@
       <c r="F43">
         <v>2</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43">
         <v>7</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43">
         <v>7</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="L43" t="str">
+      <c r="K43" t="s">
+        <v>162</v>
+      </c>
+      <c r="M43" t="str">
         <f t="shared" si="0"/>
-        <v>[42,1,0,4,'18MonthAssessments',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[42,1,0,4,'18MonthAssessments',2,7,7,None,1,'EighteenMonthAssessments'],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2334,21 +2476,24 @@
       <c r="F44">
         <v>2</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44">
         <v>7</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44">
         <v>7</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
-      <c r="L44" t="str">
+      <c r="K44" t="s">
+        <v>163</v>
+      </c>
+      <c r="M44" t="str">
         <f t="shared" si="0"/>
-        <v>[43,1,0,4,'36MonthAssessments',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[43,1,0,4,'36MonthAssessments',2,7,7,None,1,'ThirtySixMonthAssessments'],</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2367,21 +2512,24 @@
       <c r="F45">
         <v>2</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45">
         <v>7</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45">
         <v>7</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
-      <c r="L45" t="str">
+      <c r="K45" t="s">
+        <v>164</v>
+      </c>
+      <c r="M45" t="str">
         <f t="shared" si="0"/>
-        <v>[44,1,0,4,'36MonthStatus',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[44,1,0,4,'36MonthStatus',2,7,7,None,1,'ThirtySixMonthStatus'],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2400,21 +2548,24 @@
       <c r="F46">
         <v>2</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46">
         <v>7</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46">
         <v>7</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="L46" t="str">
+      <c r="K46" t="s">
+        <v>165</v>
+      </c>
+      <c r="M46" t="str">
         <f t="shared" si="0"/>
-        <v>[45,1,0,4,'3YearAuditoryAssessments',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[45,1,0,4,'3YearAuditoryAssessments',2,7,7,None,1,'ThreeYearAuditoryAssessments'],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2433,21 +2584,24 @@
       <c r="F47">
         <v>2</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47">
         <v>7</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47">
         <v>7</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="L47" t="str">
+      <c r="K47" t="s">
+        <v>166</v>
+      </c>
+      <c r="M47" t="str">
         <f t="shared" si="0"/>
-        <v>[46,1,0,4,'3YearFamilyInfo',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[46,1,0,4,'3YearFamilyInfo',2,7,7,None,1,'ThreeYearFamilyInfo'],</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2466,21 +2620,24 @@
       <c r="F48">
         <v>2</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48">
         <v>7</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48">
         <v>7</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
-      <c r="L48" t="str">
+      <c r="K48" t="s">
+        <v>167</v>
+      </c>
+      <c r="M48" t="str">
         <f t="shared" si="0"/>
-        <v>[47,1,0,4,'3YearMedicalHistories',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[47,1,0,4,'3YearMedicalHistories',2,7,7,None,1,'ThreeYearMedicalHistories'],</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2499,21 +2656,24 @@
       <c r="F49">
         <v>2</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49">
         <v>7</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49">
         <v>7</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
-      <c r="L49" t="str">
+      <c r="K49" t="s">
+        <v>168</v>
+      </c>
+      <c r="M49" t="str">
         <f t="shared" si="0"/>
-        <v>[48,1,0,4,'3YearPrimaryCaregivers',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[48,1,0,4,'3YearPrimaryCaregivers',2,7,7,None,1,'ThreeYearPrimaryCaregivers'],</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2532,21 +2692,24 @@
       <c r="F50">
         <v>2</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50">
         <v>7</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50">
         <v>7</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
-      <c r="L50" t="str">
+      <c r="K50" t="s">
+        <v>169</v>
+      </c>
+      <c r="M50" t="str">
         <f t="shared" si="0"/>
-        <v>[49,1,0,4,'3YearVisionAssessments',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[49,1,0,4,'3YearVisionAssessments',2,7,7,None,1,'ThreeYearVisionAssessments'],</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2565,21 +2728,24 @@
       <c r="F51">
         <v>2</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51">
         <v>7</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51">
         <v>7</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
-      <c r="L51" t="str">
+      <c r="K51" t="s">
+        <v>41</v>
+      </c>
+      <c r="M51" t="str">
         <f t="shared" si="0"/>
-        <v>[50,1,0,4,'AuditoryAssessments',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[50,1,0,4,'AuditoryAssessments',2,7,7,None,1,'AuditoryAssessments'],</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2598,21 +2764,24 @@
       <c r="F52">
         <v>2</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52">
         <v>7</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52">
         <v>7</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
-      <c r="L52" t="str">
+      <c r="K52" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" t="str">
         <f t="shared" si="0"/>
-        <v>[51,1,0,4,'FamilyInfo',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[51,1,0,4,'FamilyInfo',2,7,7,None,1,'FamilyInfo'],</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2631,21 +2800,24 @@
       <c r="F53">
         <v>2</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53">
         <v>7</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53">
         <v>7</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
-      <c r="L53" t="str">
+      <c r="K53" t="s">
+        <v>43</v>
+      </c>
+      <c r="M53" t="str">
         <f t="shared" si="0"/>
-        <v>[52,1,0,4,'FollowupReasons',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[52,1,0,4,'FollowupReasons',2,7,7,None,1,'FollowupReasons'],</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2664,21 +2836,24 @@
       <c r="F54">
         <v>2</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54">
         <v>7</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54">
         <v>7</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
-      <c r="L54" t="str">
+      <c r="K54" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" t="str">
         <f t="shared" si="0"/>
-        <v>[53,1,0,4,'MedicalHistories',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[53,1,0,4,'MedicalHistories',2,7,7,None,1,'MedicalHistories'],</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2697,21 +2872,24 @@
       <c r="F55">
         <v>2</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55">
         <v>7</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55">
         <v>7</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
-      <c r="L55" t="str">
+      <c r="K55" t="s">
+        <v>45</v>
+      </c>
+      <c r="M55" t="str">
         <f t="shared" si="0"/>
-        <v>[54,1,0,4,'PrimaryCaregivers',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[54,1,0,4,'PrimaryCaregivers',2,7,7,None,1,'PrimaryCaregivers'],</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2730,21 +2908,24 @@
       <c r="F56">
         <v>2</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56">
         <v>7</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56">
         <v>7</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
-      <c r="L56" t="str">
+      <c r="K56" t="s">
+        <v>46</v>
+      </c>
+      <c r="M56" t="str">
         <f t="shared" si="0"/>
-        <v>[55,1,0,4,'PsychologicalExaminations',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[55,1,0,4,'PsychologicalExaminations',2,7,7,None,1,'PsychologicalExaminations'],</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2763,21 +2944,24 @@
       <c r="F57">
         <v>2</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57">
         <v>7</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57">
         <v>7</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
-      <c r="L57" t="str">
+      <c r="K57" t="s">
+        <v>47</v>
+      </c>
+      <c r="M57" t="str">
         <f t="shared" si="0"/>
-        <v>[56,1,0,4,'VisionAssessments',2,7,7,None,1],</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[56,1,0,4,'VisionAssessments',2,7,7,None,1,'VisionAssessments'],</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2796,21 +2980,24 @@
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58" s="2">
-        <v>8</v>
-      </c>
-      <c r="H58" s="2">
+      <c r="G58">
+        <v>8</v>
+      </c>
+      <c r="H58">
         <v>8</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
-      <c r="L58" t="str">
+      <c r="K58" t="s">
+        <v>56</v>
+      </c>
+      <c r="M58" t="str">
         <f t="shared" si="0"/>
-        <v>[57,1,1,5,'mstadmissioncasetype',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[57,1,1,5,'mstadmissioncasetype',1,8,8,None,1,'mstadmissioncasetype'],</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2829,21 +3016,24 @@
       <c r="F59">
         <v>1</v>
       </c>
-      <c r="G59" s="2">
-        <v>8</v>
-      </c>
-      <c r="H59" s="2">
+      <c r="G59">
+        <v>8</v>
+      </c>
+      <c r="H59">
         <v>8</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
-      <c r="L59" t="str">
+      <c r="K59" t="s">
+        <v>57</v>
+      </c>
+      <c r="M59" t="str">
         <f t="shared" si="0"/>
-        <v>[58,1,1,5,'mstadmissioninfantsex',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[58,1,1,5,'mstadmissioninfantsex',1,8,8,None,1,'mstadmissioninfantsex'],</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2862,21 +3052,24 @@
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="G60" s="2">
-        <v>8</v>
-      </c>
-      <c r="H60" s="2">
+      <c r="G60">
+        <v>8</v>
+      </c>
+      <c r="H60">
         <v>8</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
-      <c r="L60" t="str">
+      <c r="K60" t="s">
+        <v>58</v>
+      </c>
+      <c r="M60" t="str">
         <f t="shared" si="0"/>
-        <v>[59,1,1,5,'mstadmissioninternal',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[59,1,1,5,'mstadmissioninternal',1,8,8,None,1,'mstadmissioninternal'],</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2895,21 +3088,24 @@
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="G61" s="2">
-        <v>8</v>
-      </c>
-      <c r="H61" s="2">
+      <c r="G61">
+        <v>8</v>
+      </c>
+      <c r="H61">
         <v>8</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
-      <c r="L61" t="str">
+      <c r="K61" t="s">
+        <v>59</v>
+      </c>
+      <c r="M61" t="str">
         <f t="shared" si="0"/>
-        <v>[60,1,1,5,'mstadmissionpayor',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[60,1,1,5,'mstadmissionpayor',1,8,8,None,1,'mstadmissionpayor'],</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2928,21 +3124,24 @@
       <c r="F62">
         <v>1</v>
       </c>
-      <c r="G62" s="2">
-        <v>8</v>
-      </c>
-      <c r="H62" s="2">
+      <c r="G62">
+        <v>8</v>
+      </c>
+      <c r="H62">
         <v>8</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
-      <c r="L62" t="str">
+      <c r="K62" t="s">
+        <v>60</v>
+      </c>
+      <c r="M62" t="str">
         <f t="shared" si="0"/>
-        <v>[61,1,1,5,'mstadmissionstat',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[61,1,1,5,'mstadmissionstat',1,8,8,None,1,'mstadmissionstat'],</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2961,21 +3160,24 @@
       <c r="F63">
         <v>1</v>
       </c>
-      <c r="G63" s="2">
-        <v>8</v>
-      </c>
-      <c r="H63" s="2">
+      <c r="G63">
+        <v>8</v>
+      </c>
+      <c r="H63">
         <v>8</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
-      <c r="L63" t="str">
+      <c r="K63" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" t="str">
         <f t="shared" si="0"/>
-        <v>[62,1,1,5,'mstborncordbloodteststatus',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[62,1,1,5,'mstborncordbloodteststatus',1,8,8,None,1,'mstborncordbloodteststatus'],</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2994,21 +3196,24 @@
       <c r="F64">
         <v>1</v>
       </c>
-      <c r="G64" s="2">
-        <v>8</v>
-      </c>
-      <c r="H64" s="2">
+      <c r="G64">
+        <v>8</v>
+      </c>
+      <c r="H64">
         <v>8</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
-      <c r="L64" t="str">
+      <c r="K64" t="s">
+        <v>62</v>
+      </c>
+      <c r="M64" t="str">
         <f t="shared" si="0"/>
-        <v>[63,1,1,5,'mstborncountries',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[63,1,1,5,'mstborncountries',1,8,8,None,1,'mstborncountries'],</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3027,21 +3232,24 @@
       <c r="F65">
         <v>1</v>
       </c>
-      <c r="G65" s="2">
-        <v>8</v>
-      </c>
-      <c r="H65" s="2">
+      <c r="G65">
+        <v>8</v>
+      </c>
+      <c r="H65">
         <v>8</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
-      <c r="L65" t="str">
+      <c r="K65" t="s">
+        <v>63</v>
+      </c>
+      <c r="M65" t="str">
         <f t="shared" si="0"/>
-        <v>[64,1,1,5,'mstborndrugscreenresult',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[64,1,1,5,'mstborndrugscreenresult',1,8,8,None,1,'mstborndrugscreenresult'],</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3060,21 +3268,24 @@
       <c r="F66">
         <v>1</v>
       </c>
-      <c r="G66" s="2">
-        <v>8</v>
-      </c>
-      <c r="H66" s="2">
+      <c r="G66">
+        <v>8</v>
+      </c>
+      <c r="H66">
         <v>8</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
-      <c r="L66" t="str">
+      <c r="K66" t="s">
+        <v>64</v>
+      </c>
+      <c r="M66" t="str">
         <f t="shared" si="0"/>
-        <v>[65,1,1,5,'mstbornhealthcardtype',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[65,1,1,5,'mstbornhealthcardtype',1,8,8,None,1,'mstbornhealthcardtype'],</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3093,21 +3304,24 @@
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="G67" s="2">
-        <v>8</v>
-      </c>
-      <c r="H67" s="2">
+      <c r="G67">
+        <v>8</v>
+      </c>
+      <c r="H67">
         <v>8</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
-      <c r="L67" t="str">
-        <f t="shared" ref="L67:L130" si="1">"["&amp;IF(A67="","None",A67)&amp;","&amp;IF(B67="","None",B67)&amp;","&amp;IF(C67="","None",C67)&amp;","&amp;IF(D67="","None",D67)&amp;",'"&amp;IF(E67="","None",E67)&amp;"',"&amp;IF(F67="","None",F67)&amp;","&amp;IF(G67="","None",G67)&amp;","&amp;IF(H67="","None",H67)&amp;","&amp;IF(I67="","None","["&amp;I67&amp;"]")&amp;","&amp;IF(J67="","None",J67)&amp;"]"&amp;","</f>
-        <v>[66,1,1,5,'mstbornnewbornfeeding',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>65</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:M130" si="1">"["&amp;IF(A67="","None",A67)&amp;","&amp;IF(B67="","None",B67)&amp;","&amp;IF(C67="","None",C67)&amp;","&amp;IF(D67="","None",D67)&amp;",'"&amp;IF(E67="","None",E67)&amp;"',"&amp;IF(F67="","None",F67)&amp;","&amp;IF(G67="","None",G67)&amp;","&amp;IF(H67="","None",H67)&amp;","&amp;IF(I67="","None","["&amp;I67&amp;"]")&amp;","&amp;IF(J67="","None",J67)&amp;",'"&amp;IF(K67="","None",K67)&amp;"']"&amp;","</f>
+        <v>[66,1,1,5,'mstbornnewbornfeeding',1,8,8,None,1,'mstbornnewbornfeeding'],</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3126,21 +3340,24 @@
       <c r="F68">
         <v>1</v>
       </c>
-      <c r="G68" s="2">
-        <v>8</v>
-      </c>
-      <c r="H68" s="2">
+      <c r="G68">
+        <v>8</v>
+      </c>
+      <c r="H68">
         <v>8</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
-      <c r="L68" t="str">
+      <c r="K68" t="s">
+        <v>66</v>
+      </c>
+      <c r="M68" t="str">
         <f t="shared" si="1"/>
-        <v>[67,1,1,5,'mstbornscreeningoffered',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[67,1,1,5,'mstbornscreeningoffered',1,8,8,None,1,'mstbornscreeningoffered'],</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3159,21 +3376,24 @@
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="G69" s="2">
-        <v>8</v>
-      </c>
-      <c r="H69" s="2">
+      <c r="G69">
+        <v>8</v>
+      </c>
+      <c r="H69">
         <v>8</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
-      <c r="L69" t="str">
+      <c r="K69" t="s">
+        <v>67</v>
+      </c>
+      <c r="M69" t="str">
         <f t="shared" si="1"/>
-        <v>[68,1,1,5,'mstbornynu',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[68,1,1,5,'mstbornynu',1,8,8,None,1,'mstbornynu'],</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3192,21 +3412,24 @@
       <c r="F70">
         <v>1</v>
       </c>
-      <c r="G70" s="2">
-        <v>8</v>
-      </c>
-      <c r="H70" s="2">
+      <c r="G70">
+        <v>8</v>
+      </c>
+      <c r="H70">
         <v>8</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
-      <c r="L70" t="str">
+      <c r="K70" t="s">
+        <v>68</v>
+      </c>
+      <c r="M70" t="str">
         <f t="shared" si="1"/>
-        <v>[69,1,1,5,'mstbpdgrade',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[69,1,1,5,'mstbpdgrade',1,8,8,None,1,'mstbpdgrade'],</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3225,21 +3448,24 @@
       <c r="F71">
         <v>1</v>
       </c>
-      <c r="G71" s="2">
-        <v>8</v>
-      </c>
-      <c r="H71" s="2">
+      <c r="G71">
+        <v>8</v>
+      </c>
+      <c r="H71">
         <v>8</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
-      <c r="L71" t="str">
+      <c r="K71" t="s">
+        <v>69</v>
+      </c>
+      <c r="M71" t="str">
         <f t="shared" si="1"/>
-        <v>[70,1,1,5,'mstcities',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[70,1,1,5,'mstcities',1,8,8,None,1,'mstcities'],</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3258,21 +3484,24 @@
       <c r="F72">
         <v>1</v>
       </c>
-      <c r="G72" s="2">
-        <v>8</v>
-      </c>
-      <c r="H72" s="2">
+      <c r="G72">
+        <v>8</v>
+      </c>
+      <c r="H72">
         <v>8</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
-      <c r="L72" t="str">
+      <c r="K72" t="s">
+        <v>70</v>
+      </c>
+      <c r="M72" t="str">
         <f t="shared" si="1"/>
-        <v>[71,1,1,5,'mstcitygroups',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[71,1,1,5,'mstcitygroups',1,8,8,None,1,'mstcitygroups'],</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3291,21 +3520,24 @@
       <c r="F73">
         <v>1</v>
       </c>
-      <c r="G73" s="2">
-        <v>8</v>
-      </c>
-      <c r="H73" s="2">
+      <c r="G73">
+        <v>8</v>
+      </c>
+      <c r="H73">
         <v>8</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
-      <c r="L73" t="str">
+      <c r="K73" t="s">
+        <v>71</v>
+      </c>
+      <c r="M73" t="str">
         <f t="shared" si="1"/>
-        <v>[72,1,1,5,'mstcnfunhospitallist',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[72,1,1,5,'mstcnfunhospitallist',1,8,8,None,1,'mstcnfunhospitallist'],</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3324,21 +3556,24 @@
       <c r="F74">
         <v>1</v>
       </c>
-      <c r="G74" s="2">
-        <v>8</v>
-      </c>
-      <c r="H74" s="2">
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74">
         <v>8</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
-      <c r="L74" t="str">
+      <c r="K74" t="s">
+        <v>72</v>
+      </c>
+      <c r="M74" t="str">
         <f t="shared" si="1"/>
-        <v>[73,1,1,5,'mstculturesculture',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[73,1,1,5,'mstculturesculture',1,8,8,None,1,'mstculturesculture'],</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3357,21 +3592,24 @@
       <c r="F75">
         <v>1</v>
       </c>
-      <c r="G75" s="2">
-        <v>8</v>
-      </c>
-      <c r="H75" s="2">
+      <c r="G75">
+        <v>8</v>
+      </c>
+      <c r="H75">
         <v>8</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
-      <c r="L75" t="str">
+      <c r="K75" t="s">
+        <v>73</v>
+      </c>
+      <c r="M75" t="str">
         <f t="shared" si="1"/>
-        <v>[74,1,1,5,'mstculturesdiagnosis',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[74,1,1,5,'mstculturesdiagnosis',1,8,8,None,1,'mstculturesdiagnosis'],</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3390,21 +3628,24 @@
       <c r="F76">
         <v>1</v>
       </c>
-      <c r="G76" s="2">
-        <v>8</v>
-      </c>
-      <c r="H76" s="2">
+      <c r="G76">
+        <v>8</v>
+      </c>
+      <c r="H76">
         <v>8</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
-      <c r="L76" t="str">
+      <c r="K76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M76" t="str">
         <f t="shared" si="1"/>
-        <v>[75,1,1,5,'mstculturesorganism',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[75,1,1,5,'mstculturesorganism',1,8,8,None,1,'mstculturesorganism'],</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3423,21 +3664,24 @@
       <c r="F77">
         <v>1</v>
       </c>
-      <c r="G77" s="2">
-        <v>8</v>
-      </c>
-      <c r="H77" s="2">
+      <c r="G77">
+        <v>8</v>
+      </c>
+      <c r="H77">
         <v>8</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
-      <c r="L77" t="str">
+      <c r="K77" t="s">
+        <v>75</v>
+      </c>
+      <c r="M77" t="str">
         <f t="shared" si="1"/>
-        <v>[76,1,1,5,'mstdiagnosiscongenitaltype',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[76,1,1,5,'mstdiagnosiscongenitaltype',1,8,8,None,1,'mstdiagnosiscongenitaltype'],</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3456,21 +3700,24 @@
       <c r="F78">
         <v>1</v>
       </c>
-      <c r="G78" s="2">
-        <v>8</v>
-      </c>
-      <c r="H78" s="2">
+      <c r="G78">
+        <v>8</v>
+      </c>
+      <c r="H78">
         <v>8</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
-      <c r="L78" t="str">
+      <c r="K78" t="s">
+        <v>76</v>
+      </c>
+      <c r="M78" t="str">
         <f t="shared" si="1"/>
-        <v>[77,1,1,5,'mstdiagnosisdiagnosistype',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[77,1,1,5,'mstdiagnosisdiagnosistype',1,8,8,None,1,'mstdiagnosisdiagnosistype'],</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3489,21 +3736,24 @@
       <c r="F79">
         <v>1</v>
       </c>
-      <c r="G79" s="2">
-        <v>8</v>
-      </c>
-      <c r="H79" s="2">
+      <c r="G79">
+        <v>8</v>
+      </c>
+      <c r="H79">
         <v>8</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
-      <c r="L79" t="str">
+      <c r="K79" t="s">
+        <v>77</v>
+      </c>
+      <c r="M79" t="str">
         <f t="shared" si="1"/>
-        <v>[78,1,1,5,'mstdiagnosishie',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[78,1,1,5,'mstdiagnosishie',1,8,8,None,1,'mstdiagnosishie'],</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3522,21 +3772,24 @@
       <c r="F80">
         <v>1</v>
       </c>
-      <c r="G80" s="2">
-        <v>8</v>
-      </c>
-      <c r="H80" s="2">
+      <c r="G80">
+        <v>8</v>
+      </c>
+      <c r="H80">
         <v>8</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
-      <c r="L80" t="str">
+      <c r="K80" t="s">
+        <v>78</v>
+      </c>
+      <c r="M80" t="str">
         <f t="shared" si="1"/>
-        <v>[79,1,1,5,'mstdiagnosisintperforation',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[79,1,1,5,'mstdiagnosisintperforation',1,8,8,None,1,'mstdiagnosisintperforation'],</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3555,21 +3808,24 @@
       <c r="F81">
         <v>1</v>
       </c>
-      <c r="G81" s="2">
-        <v>8</v>
-      </c>
-      <c r="H81" s="2">
+      <c r="G81">
+        <v>8</v>
+      </c>
+      <c r="H81">
         <v>8</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
-      <c r="L81" t="str">
+      <c r="K81" t="s">
+        <v>79</v>
+      </c>
+      <c r="M81" t="str">
         <f t="shared" si="1"/>
-        <v>[80,1,1,5,'mstdiagnosisnecstages',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[80,1,1,5,'mstdiagnosisnecstages',1,8,8,None,1,'mstdiagnosisnecstages'],</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3588,21 +3844,24 @@
       <c r="F82">
         <v>1</v>
       </c>
-      <c r="G82" s="2">
-        <v>8</v>
-      </c>
-      <c r="H82" s="2">
+      <c r="G82">
+        <v>8</v>
+      </c>
+      <c r="H82">
         <v>8</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
-      <c r="L82" t="str">
+      <c r="K82" t="s">
+        <v>80</v>
+      </c>
+      <c r="M82" t="str">
         <f t="shared" si="1"/>
-        <v>[81,1,1,5,'mstdiagnosispdayes',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[81,1,1,5,'mstdiagnosispdayes',1,8,8,None,1,'mstdiagnosispdayes'],</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3621,21 +3880,24 @@
       <c r="F83">
         <v>1</v>
       </c>
-      <c r="G83" s="2">
-        <v>8</v>
-      </c>
-      <c r="H83" s="2">
+      <c r="G83">
+        <v>8</v>
+      </c>
+      <c r="H83">
         <v>8</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
-      <c r="L83" t="str">
+      <c r="K83" t="s">
+        <v>81</v>
+      </c>
+      <c r="M83" t="str">
         <f t="shared" si="1"/>
-        <v>[82,1,1,5,'mstdiagnosisrds',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[82,1,1,5,'mstdiagnosisrds',1,8,8,None,1,'mstdiagnosisrds'],</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3654,21 +3916,24 @@
       <c r="F84">
         <v>1</v>
       </c>
-      <c r="G84" s="2">
-        <v>8</v>
-      </c>
-      <c r="H84" s="2">
+      <c r="G84">
+        <v>8</v>
+      </c>
+      <c r="H84">
         <v>8</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
-      <c r="L84" t="str">
+      <c r="K84" t="s">
+        <v>82</v>
+      </c>
+      <c r="M84" t="str">
         <f t="shared" si="1"/>
-        <v>[83,1,1,5,'mstdiagnosisseizures',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[83,1,1,5,'mstdiagnosisseizures',1,8,8,None,1,'mstdiagnosisseizures'],</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3687,21 +3952,24 @@
       <c r="F85">
         <v>1</v>
       </c>
-      <c r="G85" s="2">
-        <v>8</v>
-      </c>
-      <c r="H85" s="2">
+      <c r="G85">
+        <v>8</v>
+      </c>
+      <c r="H85">
         <v>8</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
-      <c r="L85" t="str">
+      <c r="K85" t="s">
+        <v>83</v>
+      </c>
+      <c r="M85" t="str">
         <f t="shared" si="1"/>
-        <v>[84,1,1,5,'mstdiagnosisthrombosislocationarterial',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[84,1,1,5,'mstdiagnosisthrombosislocationarterial',1,8,8,None,1,'mstdiagnosisthrombosislocationarterial'],</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3720,21 +3988,24 @@
       <c r="F86">
         <v>1</v>
       </c>
-      <c r="G86" s="2">
-        <v>8</v>
-      </c>
-      <c r="H86" s="2">
+      <c r="G86">
+        <v>8</v>
+      </c>
+      <c r="H86">
         <v>8</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
-      <c r="L86" t="str">
+      <c r="K86" t="s">
+        <v>84</v>
+      </c>
+      <c r="M86" t="str">
         <f t="shared" si="1"/>
-        <v>[85,1,1,5,'mstdiagnosisthrombosislocationvenous',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[85,1,1,5,'mstdiagnosisthrombosislocationvenous',1,8,8,None,1,'mstdiagnosisthrombosislocationvenous'],</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3753,21 +4024,24 @@
       <c r="F87">
         <v>1</v>
       </c>
-      <c r="G87" s="2">
-        <v>8</v>
-      </c>
-      <c r="H87" s="2">
+      <c r="G87">
+        <v>8</v>
+      </c>
+      <c r="H87">
         <v>8</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
-      <c r="L87" t="str">
+      <c r="K87" t="s">
+        <v>85</v>
+      </c>
+      <c r="M87" t="str">
         <f t="shared" si="1"/>
-        <v>[86,1,1,5,'mstdiagnosisthrombosismethod',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[86,1,1,5,'mstdiagnosisthrombosismethod',1,8,8,None,1,'mstdiagnosisthrombosismethod'],</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3786,21 +4060,24 @@
       <c r="F88">
         <v>1</v>
       </c>
-      <c r="G88" s="2">
-        <v>8</v>
-      </c>
-      <c r="H88" s="2">
+      <c r="G88">
+        <v>8</v>
+      </c>
+      <c r="H88">
         <v>8</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
-      <c r="L88" t="str">
+      <c r="K88" t="s">
+        <v>86</v>
+      </c>
+      <c r="M88" t="str">
         <f t="shared" si="1"/>
-        <v>[87,1,1,5,'mstdiagnosisthrombosistreatment',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[87,1,1,5,'mstdiagnosisthrombosistreatment',1,8,8,None,1,'mstdiagnosisthrombosistreatment'],</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3819,21 +4096,24 @@
       <c r="F89">
         <v>1</v>
       </c>
-      <c r="G89" s="2">
-        <v>8</v>
-      </c>
-      <c r="H89" s="2">
+      <c r="G89">
+        <v>8</v>
+      </c>
+      <c r="H89">
         <v>8</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
-      <c r="L89" t="str">
+      <c r="K89" t="s">
+        <v>87</v>
+      </c>
+      <c r="M89" t="str">
         <f t="shared" si="1"/>
-        <v>[88,1,1,5,'mstdischargedestination',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[88,1,1,5,'mstdischargedestination',1,8,8,None,1,'mstdischargedestination'],</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3852,21 +4132,24 @@
       <c r="F90">
         <v>1</v>
       </c>
-      <c r="G90" s="2">
-        <v>8</v>
-      </c>
-      <c r="H90" s="2">
+      <c r="G90">
+        <v>8</v>
+      </c>
+      <c r="H90">
         <v>8</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
-      <c r="L90" t="str">
+      <c r="K90" t="s">
+        <v>88</v>
+      </c>
+      <c r="M90" t="str">
         <f t="shared" si="1"/>
-        <v>[89,1,1,5,'mstdischargeinpatientarea',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[89,1,1,5,'mstdischargeinpatientarea',1,8,8,None,1,'mstdischargeinpatientarea'],</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3885,21 +4168,24 @@
       <c r="F91">
         <v>1</v>
       </c>
-      <c r="G91" s="2">
-        <v>8</v>
-      </c>
-      <c r="H91" s="2">
+      <c r="G91">
+        <v>8</v>
+      </c>
+      <c r="H91">
         <v>8</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
-      <c r="L91" t="str">
+      <c r="K91" t="s">
+        <v>89</v>
+      </c>
+      <c r="M91" t="str">
         <f t="shared" si="1"/>
-        <v>[90,1,1,5,'mstdischargeresult',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[90,1,1,5,'mstdischargeresult',1,8,8,None,1,'mstdischargeresult'],</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3918,21 +4204,24 @@
       <c r="F92">
         <v>1</v>
       </c>
-      <c r="G92" s="2">
-        <v>8</v>
-      </c>
-      <c r="H92" s="2">
+      <c r="G92">
+        <v>8</v>
+      </c>
+      <c r="H92">
         <v>8</v>
       </c>
       <c r="J92">
         <v>1</v>
       </c>
-      <c r="L92" t="str">
+      <c r="K92" t="s">
+        <v>90</v>
+      </c>
+      <c r="M92" t="str">
         <f t="shared" si="1"/>
-        <v>[91,1,1,5,'mstencephalopathyclinicalstatus',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[91,1,1,5,'mstencephalopathyclinicalstatus',1,8,8,None,1,'mstencephalopathyclinicalstatus'],</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3951,21 +4240,24 @@
       <c r="F93">
         <v>1</v>
       </c>
-      <c r="G93" s="2">
-        <v>8</v>
-      </c>
-      <c r="H93" s="2">
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="H93">
         <v>8</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
-      <c r="L93" t="str">
+      <c r="K93" t="s">
+        <v>91</v>
+      </c>
+      <c r="M93" t="str">
         <f t="shared" si="1"/>
-        <v>[92,1,1,5,'mstencephalopathyclinicalstatusatcompletion',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[92,1,1,5,'mstencephalopathyclinicalstatusatcompletion',1,8,8,None,1,'mstencephalopathyclinicalstatusatcompletion'],</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3984,21 +4276,24 @@
       <c r="F94">
         <v>1</v>
       </c>
-      <c r="G94" s="2">
-        <v>8</v>
-      </c>
-      <c r="H94" s="2">
+      <c r="G94">
+        <v>8</v>
+      </c>
+      <c r="H94">
         <v>8</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
-      <c r="L94" t="str">
+      <c r="K94" t="s">
+        <v>92</v>
+      </c>
+      <c r="M94" t="str">
         <f t="shared" si="1"/>
-        <v>[93,1,1,5,'mstencephalopathymethod',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[93,1,1,5,'mstencephalopathymethod',1,8,8,None,1,'mstencephalopathymethod'],</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4017,21 +4312,24 @@
       <c r="F95">
         <v>1</v>
       </c>
-      <c r="G95" s="2">
-        <v>8</v>
-      </c>
-      <c r="H95" s="2">
+      <c r="G95">
+        <v>8</v>
+      </c>
+      <c r="H95">
         <v>8</v>
       </c>
       <c r="J95">
         <v>1</v>
       </c>
-      <c r="L95" t="str">
+      <c r="K95" t="s">
+        <v>93</v>
+      </c>
+      <c r="M95" t="str">
         <f t="shared" si="1"/>
-        <v>[94,1,1,5,'mstencephalopathyreasonxprematurediscont',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[94,1,1,5,'mstencephalopathyreasonxprematurediscont',1,8,8,None,1,'mstencephalopathyreasonxprematurediscont'],</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4050,21 +4348,24 @@
       <c r="F96">
         <v>1</v>
       </c>
-      <c r="G96" s="2">
-        <v>8</v>
-      </c>
-      <c r="H96" s="2">
+      <c r="G96">
+        <v>8</v>
+      </c>
+      <c r="H96">
         <v>8</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
-      <c r="L96" t="str">
+      <c r="K96" t="s">
+        <v>94</v>
+      </c>
+      <c r="M96" t="str">
         <f t="shared" si="1"/>
-        <v>[95,1,1,5,'mstencephalopathytargettemp',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[95,1,1,5,'mstencephalopathytargettemp',1,8,8,None,1,'mstencephalopathytargettemp'],</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4083,21 +4384,24 @@
       <c r="F97">
         <v>1</v>
       </c>
-      <c r="G97" s="2">
-        <v>8</v>
-      </c>
-      <c r="H97" s="2">
+      <c r="G97">
+        <v>8</v>
+      </c>
+      <c r="H97">
         <v>8</v>
       </c>
       <c r="J97">
         <v>1</v>
       </c>
-      <c r="L97" t="str">
+      <c r="K97" t="s">
+        <v>95</v>
+      </c>
+      <c r="M97" t="str">
         <f t="shared" si="1"/>
-        <v>[96,1,1,5,'msteol',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[96,1,1,5,'msteol',1,8,8,None,1,'msteol'],</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4116,21 +4420,24 @@
       <c r="F98">
         <v>1</v>
       </c>
-      <c r="G98" s="2">
-        <v>8</v>
-      </c>
-      <c r="H98" s="2">
+      <c r="G98">
+        <v>8</v>
+      </c>
+      <c r="H98">
         <v>8</v>
       </c>
       <c r="J98">
         <v>1</v>
       </c>
-      <c r="L98" t="str">
+      <c r="K98" t="s">
+        <v>96</v>
+      </c>
+      <c r="M98" t="str">
         <f t="shared" si="1"/>
-        <v>[97,1,1,5,'mstepiqchecklistused',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[97,1,1,5,'mstepiqchecklistused',1,8,8,None,1,'mstepiqchecklistused'],</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4149,21 +4456,24 @@
       <c r="F99">
         <v>1</v>
       </c>
-      <c r="G99" s="2">
-        <v>8</v>
-      </c>
-      <c r="H99" s="2">
+      <c r="G99">
+        <v>8</v>
+      </c>
+      <c r="H99">
         <v>8</v>
       </c>
       <c r="J99">
         <v>1</v>
       </c>
-      <c r="L99" t="str">
+      <c r="K99" t="s">
+        <v>97</v>
+      </c>
+      <c r="M99" t="str">
         <f t="shared" si="1"/>
-        <v>[98,1,1,5,'mstfacilitytype',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[98,1,1,5,'mstfacilitytype',1,8,8,None,1,'mstfacilitytype'],</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4182,21 +4492,24 @@
       <c r="F100">
         <v>1</v>
       </c>
-      <c r="G100" s="2">
-        <v>8</v>
-      </c>
-      <c r="H100" s="2">
+      <c r="G100">
+        <v>8</v>
+      </c>
+      <c r="H100">
         <v>8</v>
       </c>
       <c r="J100">
         <v>1</v>
       </c>
-      <c r="L100" t="str">
+      <c r="K100" t="s">
+        <v>98</v>
+      </c>
+      <c r="M100" t="str">
         <f t="shared" si="1"/>
-        <v>[99,1,1,5,'msthospitals',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[99,1,1,5,'msthospitals',1,8,8,None,1,'msthospitals'],</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4215,21 +4528,24 @@
       <c r="F101">
         <v>1</v>
       </c>
-      <c r="G101" s="2">
-        <v>8</v>
-      </c>
-      <c r="H101" s="2">
+      <c r="G101">
+        <v>8</v>
+      </c>
+      <c r="H101">
         <v>8</v>
       </c>
       <c r="J101">
         <v>1</v>
       </c>
-      <c r="L101" t="str">
+      <c r="K101" t="s">
+        <v>99</v>
+      </c>
+      <c r="M101" t="str">
         <f t="shared" si="1"/>
-        <v>[100,1,1,5,'mstivhresponse',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[100,1,1,5,'mstivhresponse',1,8,8,None,1,'mstivhresponse'],</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4248,21 +4564,24 @@
       <c r="F102">
         <v>1</v>
       </c>
-      <c r="G102" s="2">
-        <v>8</v>
-      </c>
-      <c r="H102" s="2">
+      <c r="G102">
+        <v>8</v>
+      </c>
+      <c r="H102">
         <v>8</v>
       </c>
       <c r="J102">
         <v>1</v>
       </c>
-      <c r="L102" t="str">
+      <c r="K102" t="s">
+        <v>100</v>
+      </c>
+      <c r="M102" t="str">
         <f t="shared" si="1"/>
-        <v>[101,1,1,5,'mstivhventricular',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[101,1,1,5,'mstivhventricular',1,8,8,None,1,'mstivhventricular'],</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4281,21 +4600,24 @@
       <c r="F103">
         <v>1</v>
       </c>
-      <c r="G103" s="2">
-        <v>8</v>
-      </c>
-      <c r="H103" s="2">
+      <c r="G103">
+        <v>8</v>
+      </c>
+      <c r="H103">
         <v>8</v>
       </c>
       <c r="J103">
         <v>1</v>
       </c>
-      <c r="L103" t="str">
+      <c r="K103" t="s">
+        <v>101</v>
+      </c>
+      <c r="M103" t="str">
         <f t="shared" si="1"/>
-        <v>[102,1,1,5,'mstmotherantecort',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[102,1,1,5,'mstmotherantecort',1,8,8,None,1,'mstmotherantecort'],</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4314,21 +4636,24 @@
       <c r="F104">
         <v>1</v>
       </c>
-      <c r="G104" s="2">
-        <v>8</v>
-      </c>
-      <c r="H104" s="2">
+      <c r="G104">
+        <v>8</v>
+      </c>
+      <c r="H104">
         <v>8</v>
       </c>
       <c r="J104">
         <v>1</v>
       </c>
-      <c r="L104" t="str">
+      <c r="K104" t="s">
+        <v>102</v>
+      </c>
+      <c r="M104" t="str">
         <f t="shared" si="1"/>
-        <v>[103,1,1,5,'mstmotheranteintervention',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[103,1,1,5,'mstmotheranteintervention',1,8,8,None,1,'mstmotheranteintervention'],</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4347,21 +4672,24 @@
       <c r="F105">
         <v>1</v>
       </c>
-      <c r="G105" s="2">
-        <v>8</v>
-      </c>
-      <c r="H105" s="2">
+      <c r="G105">
+        <v>8</v>
+      </c>
+      <c r="H105">
         <v>8</v>
       </c>
       <c r="J105">
         <v>1</v>
       </c>
-      <c r="L105" t="str">
+      <c r="K105" t="s">
+        <v>103</v>
+      </c>
+      <c r="M105" t="str">
         <f t="shared" si="1"/>
-        <v>[104,1,1,5,'mstmotherdeliverytype',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[104,1,1,5,'mstmotherdeliverytype',1,8,8,None,1,'mstmotherdeliverytype'],</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4380,21 +4708,24 @@
       <c r="F106">
         <v>1</v>
       </c>
-      <c r="G106" s="2">
-        <v>8</v>
-      </c>
-      <c r="H106" s="2">
+      <c r="G106">
+        <v>8</v>
+      </c>
+      <c r="H106">
         <v>8</v>
       </c>
       <c r="J106">
         <v>1</v>
       </c>
-      <c r="L106" t="str">
+      <c r="K106" t="s">
+        <v>104</v>
+      </c>
+      <c r="M106" t="str">
         <f t="shared" si="1"/>
-        <v>[105,1,1,5,'mstmotherdiabetes',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[105,1,1,5,'mstmotherdiabetes',1,8,8,None,1,'mstmotherdiabetes'],</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4413,21 +4744,24 @@
       <c r="F107">
         <v>1</v>
       </c>
-      <c r="G107" s="2">
-        <v>8</v>
-      </c>
-      <c r="H107" s="2">
+      <c r="G107">
+        <v>8</v>
+      </c>
+      <c r="H107">
         <v>8</v>
       </c>
       <c r="J107">
         <v>1</v>
       </c>
-      <c r="L107" t="str">
+      <c r="K107" t="s">
+        <v>105</v>
+      </c>
+      <c r="M107" t="str">
         <f t="shared" si="1"/>
-        <v>[106,1,1,5,'mstmotherethnicity',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[106,1,1,5,'mstmotherethnicity',1,8,8,None,1,'mstmotherethnicity'],</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4446,21 +4780,24 @@
       <c r="F108">
         <v>1</v>
       </c>
-      <c r="G108" s="2">
-        <v>8</v>
-      </c>
-      <c r="H108" s="2">
+      <c r="G108">
+        <v>8</v>
+      </c>
+      <c r="H108">
         <v>8</v>
       </c>
       <c r="J108">
         <v>1</v>
       </c>
-      <c r="L108" t="str">
+      <c r="K108" t="s">
+        <v>106</v>
+      </c>
+      <c r="M108" t="str">
         <f t="shared" si="1"/>
-        <v>[107,1,1,5,'mstmotherhypertension',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[107,1,1,5,'mstmotherhypertension',1,8,8,None,1,'mstmotherhypertension'],</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4479,21 +4816,24 @@
       <c r="F109">
         <v>1</v>
       </c>
-      <c r="G109" s="2">
-        <v>8</v>
-      </c>
-      <c r="H109" s="2">
+      <c r="G109">
+        <v>8</v>
+      </c>
+      <c r="H109">
         <v>8</v>
       </c>
       <c r="J109">
         <v>1</v>
       </c>
-      <c r="L109" t="str">
+      <c r="K109" t="s">
+        <v>107</v>
+      </c>
+      <c r="M109" t="str">
         <f t="shared" si="1"/>
-        <v>[108,1,1,5,'mstmotherlabourinit',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[108,1,1,5,'mstmotherlabourinit',1,8,8,None,1,'mstmotherlabourinit'],</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4512,21 +4852,24 @@
       <c r="F110">
         <v>1</v>
       </c>
-      <c r="G110" s="2">
-        <v>8</v>
-      </c>
-      <c r="H110" s="2">
+      <c r="G110">
+        <v>8</v>
+      </c>
+      <c r="H110">
         <v>8</v>
       </c>
       <c r="J110">
         <v>1</v>
       </c>
-      <c r="L110" t="str">
+      <c r="K110" t="s">
+        <v>108</v>
+      </c>
+      <c r="M110" t="str">
         <f t="shared" si="1"/>
-        <v>[109,1,1,5,'mstmotherpresentation',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[109,1,1,5,'mstmotherpresentation',1,8,8,None,1,'mstmotherpresentation'],</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4545,21 +4888,24 @@
       <c r="F111">
         <v>1</v>
       </c>
-      <c r="G111" s="2">
-        <v>8</v>
-      </c>
-      <c r="H111" s="2">
+      <c r="G111">
+        <v>8</v>
+      </c>
+      <c r="H111">
         <v>8</v>
       </c>
       <c r="J111">
         <v>1</v>
       </c>
-      <c r="L111" t="str">
+      <c r="K111" t="s">
+        <v>109</v>
+      </c>
+      <c r="M111" t="str">
         <f t="shared" si="1"/>
-        <v>[110,1,1,5,'mstmotherrom',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[110,1,1,5,'mstmotherrom',1,8,8,None,1,'mstmotherrom'],</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4578,21 +4924,24 @@
       <c r="F112">
         <v>1</v>
       </c>
-      <c r="G112" s="2">
-        <v>8</v>
-      </c>
-      <c r="H112" s="2">
+      <c r="G112">
+        <v>8</v>
+      </c>
+      <c r="H112">
         <v>8</v>
       </c>
       <c r="J112">
         <v>1</v>
       </c>
-      <c r="L112" t="str">
+      <c r="K112" t="s">
+        <v>110</v>
+      </c>
+      <c r="M112" t="str">
         <f t="shared" si="1"/>
-        <v>[111,1,1,5,'mstmothertotalacgiven',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[111,1,1,5,'mstmothertotalacgiven',1,8,8,None,1,'mstmothertotalacgiven'],</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4611,21 +4960,24 @@
       <c r="F113">
         <v>1</v>
       </c>
-      <c r="G113" s="2">
-        <v>8</v>
-      </c>
-      <c r="H113" s="2">
+      <c r="G113">
+        <v>8</v>
+      </c>
+      <c r="H113">
         <v>8</v>
       </c>
       <c r="J113">
         <v>1</v>
       </c>
-      <c r="L113" t="str">
+      <c r="K113" t="s">
+        <v>111</v>
+      </c>
+      <c r="M113" t="str">
         <f t="shared" si="1"/>
-        <v>[112,1,1,5,'mstnropcomplications',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[112,1,1,5,'mstnropcomplications',1,8,8,None,1,'mstnropcomplications'],</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4644,21 +4996,24 @@
       <c r="F114">
         <v>1</v>
       </c>
-      <c r="G114" s="2">
-        <v>8</v>
-      </c>
-      <c r="H114" s="2">
+      <c r="G114">
+        <v>8</v>
+      </c>
+      <c r="H114">
         <v>8</v>
       </c>
       <c r="J114">
         <v>1</v>
       </c>
-      <c r="L114" t="str">
+      <c r="K114" t="s">
+        <v>112</v>
+      </c>
+      <c r="M114" t="str">
         <f t="shared" si="1"/>
-        <v>[113,1,1,5,'mstnropdurations',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[113,1,1,5,'mstnropdurations',1,8,8,None,1,'mstnropdurations'],</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4677,21 +5032,24 @@
       <c r="F115">
         <v>1</v>
       </c>
-      <c r="G115" s="2">
-        <v>8</v>
-      </c>
-      <c r="H115" s="2">
+      <c r="G115">
+        <v>8</v>
+      </c>
+      <c r="H115">
         <v>8</v>
       </c>
       <c r="J115">
         <v>1</v>
       </c>
-      <c r="L115" t="str">
+      <c r="K115" t="s">
+        <v>113</v>
+      </c>
+      <c r="M115" t="str">
         <f t="shared" si="1"/>
-        <v>[114,1,1,5,'mstnropfollowup',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[114,1,1,5,'mstnropfollowup',1,8,8,None,1,'mstnropfollowup'],</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4710,21 +5068,24 @@
       <c r="F116">
         <v>1</v>
       </c>
-      <c r="G116" s="2">
-        <v>8</v>
-      </c>
-      <c r="H116" s="2">
+      <c r="G116">
+        <v>8</v>
+      </c>
+      <c r="H116">
         <v>8</v>
       </c>
       <c r="J116">
         <v>1</v>
       </c>
-      <c r="L116" t="str">
+      <c r="K116" t="s">
+        <v>114</v>
+      </c>
+      <c r="M116" t="str">
         <f t="shared" si="1"/>
-        <v>[115,1,1,5,'mstnropplus',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[115,1,1,5,'mstnropplus',1,8,8,None,1,'mstnropplus'],</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4743,21 +5104,24 @@
       <c r="F117">
         <v>1</v>
       </c>
-      <c r="G117" s="2">
-        <v>8</v>
-      </c>
-      <c r="H117" s="2">
+      <c r="G117">
+        <v>8</v>
+      </c>
+      <c r="H117">
         <v>8</v>
       </c>
       <c r="J117">
         <v>1</v>
       </c>
-      <c r="L117" t="str">
+      <c r="K117" t="s">
+        <v>115</v>
+      </c>
+      <c r="M117" t="str">
         <f t="shared" si="1"/>
-        <v>[116,1,1,5,'mstnropstage',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[116,1,1,5,'mstnropstage',1,8,8,None,1,'mstnropstage'],</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4776,21 +5140,24 @@
       <c r="F118">
         <v>1</v>
       </c>
-      <c r="G118" s="2">
-        <v>8</v>
-      </c>
-      <c r="H118" s="2">
+      <c r="G118">
+        <v>8</v>
+      </c>
+      <c r="H118">
         <v>8</v>
       </c>
       <c r="J118">
         <v>1</v>
       </c>
-      <c r="L118" t="str">
+      <c r="K118" t="s">
+        <v>116</v>
+      </c>
+      <c r="M118" t="str">
         <f t="shared" si="1"/>
-        <v>[117,1,1,5,'mstnroptreatmenteyes',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[117,1,1,5,'mstnroptreatmenteyes',1,8,8,None,1,'mstnroptreatmenteyes'],</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4809,21 +5176,24 @@
       <c r="F119">
         <v>1</v>
       </c>
-      <c r="G119" s="2">
-        <v>8</v>
-      </c>
-      <c r="H119" s="2">
+      <c r="G119">
+        <v>8</v>
+      </c>
+      <c r="H119">
         <v>8</v>
       </c>
       <c r="J119">
         <v>1</v>
       </c>
-      <c r="L119" t="str">
+      <c r="K119" t="s">
+        <v>117</v>
+      </c>
+      <c r="M119" t="str">
         <f t="shared" si="1"/>
-        <v>[118,1,1,5,'mstnroptreatmentlocations',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[118,1,1,5,'mstnroptreatmentlocations',1,8,8,None,1,'mstnroptreatmentlocations'],</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4842,21 +5212,24 @@
       <c r="F120">
         <v>1</v>
       </c>
-      <c r="G120" s="2">
-        <v>8</v>
-      </c>
-      <c r="H120" s="2">
+      <c r="G120">
+        <v>8</v>
+      </c>
+      <c r="H120">
         <v>8</v>
       </c>
       <c r="J120">
         <v>1</v>
       </c>
-      <c r="L120" t="str">
+      <c r="K120" t="s">
+        <v>118</v>
+      </c>
+      <c r="M120" t="str">
         <f t="shared" si="1"/>
-        <v>[119,1,1,5,'mstnroptreatmenttypes',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[119,1,1,5,'mstnroptreatmenttypes',1,8,8,None,1,'mstnroptreatmenttypes'],</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4875,21 +5248,24 @@
       <c r="F121">
         <v>1</v>
       </c>
-      <c r="G121" s="2">
-        <v>8</v>
-      </c>
-      <c r="H121" s="2">
+      <c r="G121">
+        <v>8</v>
+      </c>
+      <c r="H121">
         <v>8</v>
       </c>
       <c r="J121">
         <v>1</v>
       </c>
-      <c r="L121" t="str">
+      <c r="K121" t="s">
+        <v>119</v>
+      </c>
+      <c r="M121" t="str">
         <f t="shared" si="1"/>
-        <v>[120,1,1,5,'mstnropzone',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[120,1,1,5,'mstnropzone',1,8,8,None,1,'mstnropzone'],</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4908,21 +5284,24 @@
       <c r="F122">
         <v>1</v>
       </c>
-      <c r="G122" s="2">
-        <v>8</v>
-      </c>
-      <c r="H122" s="2">
+      <c r="G122">
+        <v>8</v>
+      </c>
+      <c r="H122">
         <v>8</v>
       </c>
       <c r="J122">
         <v>1</v>
       </c>
-      <c r="L122" t="str">
+      <c r="K122" t="s">
+        <v>120</v>
+      </c>
+      <c r="M122" t="str">
         <f t="shared" si="1"/>
-        <v>[121,1,1,5,'mstntissantibiotics',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[121,1,1,5,'mstntissantibiotics',1,8,8,None,1,'mstntissantibiotics'],</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4941,21 +5320,24 @@
       <c r="F123">
         <v>1</v>
       </c>
-      <c r="G123" s="2">
-        <v>8</v>
-      </c>
-      <c r="H123" s="2">
+      <c r="G123">
+        <v>8</v>
+      </c>
+      <c r="H123">
         <v>8</v>
       </c>
       <c r="J123">
         <v>1</v>
       </c>
-      <c r="L123" t="str">
+      <c r="K123" t="s">
+        <v>121</v>
+      </c>
+      <c r="M123" t="str">
         <f t="shared" si="1"/>
-        <v>[122,1,1,5,'mstntisschesttube',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[122,1,1,5,'mstntisschesttube',1,8,8,None,1,'mstntisschesttube'],</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4974,21 +5356,24 @@
       <c r="F124">
         <v>1</v>
       </c>
-      <c r="G124" s="2">
-        <v>8</v>
-      </c>
-      <c r="H124" s="2">
+      <c r="G124">
+        <v>8</v>
+      </c>
+      <c r="H124">
         <v>8</v>
       </c>
       <c r="J124">
         <v>1</v>
       </c>
-      <c r="L124" t="str">
+      <c r="K124" t="s">
+        <v>122</v>
+      </c>
+      <c r="M124" t="str">
         <f t="shared" si="1"/>
-        <v>[123,1,1,5,'mstntisspacemaker',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[123,1,1,5,'mstntisspacemaker',1,8,8,None,1,'mstntisspacemaker'],</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5007,21 +5392,24 @@
       <c r="F125">
         <v>1</v>
       </c>
-      <c r="G125" s="2">
-        <v>8</v>
-      </c>
-      <c r="H125" s="2">
+      <c r="G125">
+        <v>8</v>
+      </c>
+      <c r="H125">
         <v>8</v>
       </c>
       <c r="J125">
         <v>1</v>
       </c>
-      <c r="L125" t="str">
+      <c r="K125" t="s">
+        <v>123</v>
+      </c>
+      <c r="M125" t="str">
         <f t="shared" si="1"/>
-        <v>[124,1,1,5,'mstntisstracheostomy',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[124,1,1,5,'mstntisstracheostomy',1,8,8,None,1,'mstntisstracheostomy'],</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5040,21 +5428,24 @@
       <c r="F126">
         <v>1</v>
       </c>
-      <c r="G126" s="2">
-        <v>8</v>
-      </c>
-      <c r="H126" s="2">
+      <c r="G126">
+        <v>8</v>
+      </c>
+      <c r="H126">
         <v>8</v>
       </c>
       <c r="J126">
         <v>1</v>
       </c>
-      <c r="L126" t="str">
+      <c r="K126" t="s">
+        <v>124</v>
+      </c>
+      <c r="M126" t="str">
         <f t="shared" si="1"/>
-        <v>[125,1,1,5,'mstpatientchart',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[125,1,1,5,'mstpatientchart',1,8,8,None,1,'mstpatientchart'],</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5073,21 +5464,24 @@
       <c r="F127">
         <v>1</v>
       </c>
-      <c r="G127" s="2">
-        <v>8</v>
-      </c>
-      <c r="H127" s="2">
+      <c r="G127">
+        <v>8</v>
+      </c>
+      <c r="H127">
         <v>8</v>
       </c>
       <c r="J127">
         <v>1</v>
       </c>
-      <c r="L127" t="str">
+      <c r="K127" t="s">
+        <v>125</v>
+      </c>
+      <c r="M127" t="str">
         <f t="shared" si="1"/>
-        <v>[126,1,1,5,'mstpdatreatment',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[126,1,1,5,'mstpdatreatment',1,8,8,None,1,'mstpdatreatment'],</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5106,21 +5500,24 @@
       <c r="F128">
         <v>1</v>
       </c>
-      <c r="G128" s="2">
-        <v>8</v>
-      </c>
-      <c r="H128" s="2">
+      <c r="G128">
+        <v>8</v>
+      </c>
+      <c r="H128">
         <v>8</v>
       </c>
       <c r="J128">
         <v>1</v>
       </c>
-      <c r="L128" t="str">
+      <c r="K128" t="s">
+        <v>126</v>
+      </c>
+      <c r="M128" t="str">
         <f t="shared" si="1"/>
-        <v>[127,1,1,5,'mstpostnatalsteroidsindication',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[127,1,1,5,'mstpostnatalsteroidsindication',1,8,8,None,1,'mstpostnatalsteroidsindication'],</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5139,21 +5536,24 @@
       <c r="F129">
         <v>1</v>
       </c>
-      <c r="G129" s="2">
-        <v>8</v>
-      </c>
-      <c r="H129" s="2">
+      <c r="G129">
+        <v>8</v>
+      </c>
+      <c r="H129">
         <v>8</v>
       </c>
       <c r="J129">
         <v>1</v>
       </c>
-      <c r="L129" t="str">
+      <c r="K129" t="s">
+        <v>127</v>
+      </c>
+      <c r="M129" t="str">
         <f t="shared" si="1"/>
-        <v>[128,1,1,5,'mstpostnatalsteroidsroute',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[128,1,1,5,'mstpostnatalsteroidsroute',1,8,8,None,1,'mstpostnatalsteroidsroute'],</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5172,21 +5572,24 @@
       <c r="F130">
         <v>1</v>
       </c>
-      <c r="G130" s="2">
-        <v>8</v>
-      </c>
-      <c r="H130" s="2">
+      <c r="G130">
+        <v>8</v>
+      </c>
+      <c r="H130">
         <v>8</v>
       </c>
       <c r="J130">
         <v>1</v>
       </c>
-      <c r="L130" t="str">
+      <c r="K130" t="s">
+        <v>128</v>
+      </c>
+      <c r="M130" t="str">
         <f t="shared" si="1"/>
-        <v>[129,1,1,5,'mstpostnatalsteroidstype',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[129,1,1,5,'mstpostnatalsteroidstype',1,8,8,None,1,'mstpostnatalsteroidstype'],</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5205,21 +5608,24 @@
       <c r="F131">
         <v>1</v>
       </c>
-      <c r="G131" s="2">
-        <v>8</v>
-      </c>
-      <c r="H131" s="2">
+      <c r="G131">
+        <v>8</v>
+      </c>
+      <c r="H131">
         <v>8</v>
       </c>
       <c r="J131">
         <v>1</v>
       </c>
-      <c r="L131" t="str">
-        <f t="shared" ref="L131:L150" si="2">"["&amp;IF(A131="","None",A131)&amp;","&amp;IF(B131="","None",B131)&amp;","&amp;IF(C131="","None",C131)&amp;","&amp;IF(D131="","None",D131)&amp;",'"&amp;IF(E131="","None",E131)&amp;"',"&amp;IF(F131="","None",F131)&amp;","&amp;IF(G131="","None",G131)&amp;","&amp;IF(H131="","None",H131)&amp;","&amp;IF(I131="","None","["&amp;I131&amp;"]")&amp;","&amp;IF(J131="","None",J131)&amp;"]"&amp;","</f>
-        <v>[130,1,1,5,'mstpostnatalsteroidstypeindication',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K131" t="s">
+        <v>129</v>
+      </c>
+      <c r="M131" t="str">
+        <f t="shared" ref="M131:M150" si="2">"["&amp;IF(A131="","None",A131)&amp;","&amp;IF(B131="","None",B131)&amp;","&amp;IF(C131="","None",C131)&amp;","&amp;IF(D131="","None",D131)&amp;",'"&amp;IF(E131="","None",E131)&amp;"',"&amp;IF(F131="","None",F131)&amp;","&amp;IF(G131="","None",G131)&amp;","&amp;IF(H131="","None",H131)&amp;","&amp;IF(I131="","None","["&amp;I131&amp;"]")&amp;","&amp;IF(J131="","None",J131)&amp;",'"&amp;IF(K131="","None",K131)&amp;"']"&amp;","</f>
+        <v>[130,1,1,5,'mstpostnatalsteroidstypeindication',1,8,8,None,1,'mstpostnatalsteroidstypeindication'],</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5238,21 +5644,24 @@
       <c r="F132">
         <v>1</v>
       </c>
-      <c r="G132" s="2">
-        <v>8</v>
-      </c>
-      <c r="H132" s="2">
+      <c r="G132">
+        <v>8</v>
+      </c>
+      <c r="H132">
         <v>8</v>
       </c>
       <c r="J132">
         <v>1</v>
       </c>
-      <c r="L132" t="str">
+      <c r="K132" t="s">
+        <v>130</v>
+      </c>
+      <c r="M132" t="str">
         <f t="shared" si="2"/>
-        <v>[131,1,1,5,'mstposttransferdest',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[131,1,1,5,'mstposttransferdest',1,8,8,None,1,'mstposttransferdest'],</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5271,21 +5680,24 @@
       <c r="F133">
         <v>1</v>
       </c>
-      <c r="G133" s="2">
-        <v>8</v>
-      </c>
-      <c r="H133" s="2">
+      <c r="G133">
+        <v>8</v>
+      </c>
+      <c r="H133">
         <v>8</v>
       </c>
       <c r="J133">
         <v>1</v>
       </c>
-      <c r="L133" t="str">
+      <c r="K133" t="s">
+        <v>131</v>
+      </c>
+      <c r="M133" t="str">
         <f t="shared" si="2"/>
-        <v>[132,1,1,5,'mstprovinces',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[132,1,1,5,'mstprovinces',1,8,8,None,1,'mstprovinces'],</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5304,21 +5716,24 @@
       <c r="F134">
         <v>1</v>
       </c>
-      <c r="G134" s="2">
-        <v>8</v>
-      </c>
-      <c r="H134" s="2">
+      <c r="G134">
+        <v>8</v>
+      </c>
+      <c r="H134">
         <v>8</v>
       </c>
       <c r="J134">
         <v>1</v>
       </c>
-      <c r="L134" t="str">
+      <c r="K134" t="s">
+        <v>132</v>
+      </c>
+      <c r="M134" t="str">
         <f t="shared" si="2"/>
-        <v>[133,1,1,5,'mstresponse',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[133,1,1,5,'mstresponse',1,8,8,None,1,'mstresponse'],</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5337,21 +5752,24 @@
       <c r="F135">
         <v>1</v>
       </c>
-      <c r="G135" s="2">
-        <v>8</v>
-      </c>
-      <c r="H135" s="2">
+      <c r="G135">
+        <v>8</v>
+      </c>
+      <c r="H135">
         <v>8</v>
       </c>
       <c r="J135">
         <v>1</v>
       </c>
-      <c r="L135" t="str">
+      <c r="K135" t="s">
+        <v>133</v>
+      </c>
+      <c r="M135" t="str">
         <f t="shared" si="2"/>
-        <v>[134,1,1,5,'mstresponsetostimuli',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[134,1,1,5,'mstresponsetostimuli',1,8,8,None,1,'mstresponsetostimuli'],</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5370,21 +5788,24 @@
       <c r="F136">
         <v>1</v>
       </c>
-      <c r="G136" s="2">
-        <v>8</v>
-      </c>
-      <c r="H136" s="2">
+      <c r="G136">
+        <v>8</v>
+      </c>
+      <c r="H136">
         <v>8</v>
       </c>
       <c r="J136">
         <v>1</v>
       </c>
-      <c r="L136" t="str">
+      <c r="K136" t="s">
+        <v>134</v>
+      </c>
+      <c r="M136" t="str">
         <f t="shared" si="2"/>
-        <v>[135,1,1,5,'mstrespstatus',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[135,1,1,5,'mstrespstatus',1,8,8,None,1,'mstrespstatus'],</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5403,21 +5824,24 @@
       <c r="F137">
         <v>1</v>
       </c>
-      <c r="G137" s="2">
-        <v>8</v>
-      </c>
-      <c r="H137" s="2">
+      <c r="G137">
+        <v>8</v>
+      </c>
+      <c r="H137">
         <v>8</v>
       </c>
       <c r="J137">
         <v>1</v>
       </c>
-      <c r="L137" t="str">
+      <c r="K137" t="s">
+        <v>135</v>
+      </c>
+      <c r="M137" t="str">
         <f t="shared" si="2"/>
-        <v>[136,1,1,5,'mstresuscitationinitialgas',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[136,1,1,5,'mstresuscitationinitialgas',1,8,8,None,1,'mstresuscitationinitialgas'],</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5436,21 +5860,24 @@
       <c r="F138">
         <v>1</v>
       </c>
-      <c r="G138" s="2">
-        <v>8</v>
-      </c>
-      <c r="H138" s="2">
+      <c r="G138">
+        <v>8</v>
+      </c>
+      <c r="H138">
         <v>8</v>
       </c>
       <c r="J138">
         <v>1</v>
       </c>
-      <c r="L138" t="str">
+      <c r="K138" t="s">
+        <v>136</v>
+      </c>
+      <c r="M138" t="str">
         <f t="shared" si="2"/>
-        <v>[137,1,1,5,'mstropplus',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[137,1,1,5,'mstropplus',1,8,8,None,1,'mstropplus'],</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5469,21 +5896,24 @@
       <c r="F139">
         <v>1</v>
       </c>
-      <c r="G139" s="2">
-        <v>8</v>
-      </c>
-      <c r="H139" s="2">
+      <c r="G139">
+        <v>8</v>
+      </c>
+      <c r="H139">
         <v>8</v>
       </c>
       <c r="J139">
         <v>1</v>
       </c>
-      <c r="L139" t="str">
+      <c r="K139" t="s">
+        <v>137</v>
+      </c>
+      <c r="M139" t="str">
         <f t="shared" si="2"/>
-        <v>[138,1,1,5,'mstropstage',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[138,1,1,5,'mstropstage',1,8,8,None,1,'mstropstage'],</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5502,21 +5932,24 @@
       <c r="F140">
         <v>1</v>
       </c>
-      <c r="G140" s="2">
-        <v>8</v>
-      </c>
-      <c r="H140" s="2">
+      <c r="G140">
+        <v>8</v>
+      </c>
+      <c r="H140">
         <v>8</v>
       </c>
       <c r="J140">
         <v>1</v>
       </c>
-      <c r="L140" t="str">
+      <c r="K140" t="s">
+        <v>138</v>
+      </c>
+      <c r="M140" t="str">
         <f t="shared" si="2"/>
-        <v>[139,1,1,5,'mstroptreatmenteye',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[139,1,1,5,'mstroptreatmenteye',1,8,8,None,1,'mstroptreatmenteye'],</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5535,21 +5968,24 @@
       <c r="F141">
         <v>1</v>
       </c>
-      <c r="G141" s="2">
-        <v>8</v>
-      </c>
-      <c r="H141" s="2">
+      <c r="G141">
+        <v>8</v>
+      </c>
+      <c r="H141">
         <v>8</v>
       </c>
       <c r="J141">
         <v>1</v>
       </c>
-      <c r="L141" t="str">
+      <c r="K141" t="s">
+        <v>139</v>
+      </c>
+      <c r="M141" t="str">
         <f t="shared" si="2"/>
-        <v>[140,1,1,5,'mstroptreatmenttype',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[140,1,1,5,'mstroptreatmenttype',1,8,8,None,1,'mstroptreatmenttype'],</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5568,21 +6004,24 @@
       <c r="F142">
         <v>1</v>
       </c>
-      <c r="G142" s="2">
-        <v>8</v>
-      </c>
-      <c r="H142" s="2">
+      <c r="G142">
+        <v>8</v>
+      </c>
+      <c r="H142">
         <v>8</v>
       </c>
       <c r="J142">
         <v>1</v>
       </c>
-      <c r="L142" t="str">
+      <c r="K142" t="s">
+        <v>140</v>
+      </c>
+      <c r="M142" t="str">
         <f t="shared" si="2"/>
-        <v>[141,1,1,5,'mstropzone',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[141,1,1,5,'mstropzone',1,8,8,None,1,'mstropzone'],</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5601,21 +6040,24 @@
       <c r="F143">
         <v>1</v>
       </c>
-      <c r="G143" s="2">
-        <v>8</v>
-      </c>
-      <c r="H143" s="2">
+      <c r="G143">
+        <v>8</v>
+      </c>
+      <c r="H143">
         <v>8</v>
       </c>
       <c r="J143">
         <v>1</v>
       </c>
-      <c r="L143" t="str">
+      <c r="K143" t="s">
+        <v>141</v>
+      </c>
+      <c r="M143" t="str">
         <f t="shared" si="2"/>
-        <v>[142,1,1,5,'mstsearchgridcolumns',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[142,1,1,5,'mstsearchgridcolumns',1,8,8,None,1,'mstsearchgridcolumns'],</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5634,21 +6076,24 @@
       <c r="F144">
         <v>1</v>
       </c>
-      <c r="G144" s="2">
-        <v>8</v>
-      </c>
-      <c r="H144" s="2">
+      <c r="G144">
+        <v>8</v>
+      </c>
+      <c r="H144">
         <v>8</v>
       </c>
       <c r="J144">
         <v>1</v>
       </c>
-      <c r="L144" t="str">
+      <c r="K144" t="s">
+        <v>142</v>
+      </c>
+      <c r="M144" t="str">
         <f t="shared" si="2"/>
-        <v>[143,1,1,5,'mstsnapeffectivefio2',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[143,1,1,5,'mstsnapeffectivefio2',1,8,8,None,1,'mstsnapeffectivefio2'],</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5667,21 +6112,24 @@
       <c r="F145">
         <v>1</v>
       </c>
-      <c r="G145" s="2">
-        <v>8</v>
-      </c>
-      <c r="H145" s="2">
+      <c r="G145">
+        <v>8</v>
+      </c>
+      <c r="H145">
         <v>8</v>
       </c>
       <c r="J145">
         <v>1</v>
       </c>
-      <c r="L145" t="str">
+      <c r="K145" t="s">
+        <v>143</v>
+      </c>
+      <c r="M145" t="str">
         <f t="shared" si="2"/>
-        <v>[144,1,1,5,'mstsnapfactor',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[144,1,1,5,'mstsnapfactor',1,8,8,None,1,'mstsnapfactor'],</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5700,21 +6148,24 @@
       <c r="F146">
         <v>1</v>
       </c>
-      <c r="G146" s="2">
-        <v>8</v>
-      </c>
-      <c r="H146" s="2">
+      <c r="G146">
+        <v>8</v>
+      </c>
+      <c r="H146">
         <v>8</v>
       </c>
       <c r="J146">
         <v>1</v>
       </c>
-      <c r="L146" t="str">
+      <c r="K146" t="s">
+        <v>144</v>
+      </c>
+      <c r="M146" t="str">
         <f t="shared" si="2"/>
-        <v>[145,1,1,5,'mstsnapseizures',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[145,1,1,5,'mstsnapseizures',1,8,8,None,1,'mstsnapseizures'],</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5733,21 +6184,24 @@
       <c r="F147">
         <v>1</v>
       </c>
-      <c r="G147" s="2">
-        <v>8</v>
-      </c>
-      <c r="H147" s="2">
+      <c r="G147">
+        <v>8</v>
+      </c>
+      <c r="H147">
         <v>8</v>
       </c>
       <c r="J147">
         <v>1</v>
       </c>
-      <c r="L147" t="str">
+      <c r="K147" t="s">
+        <v>145</v>
+      </c>
+      <c r="M147" t="str">
         <f t="shared" si="2"/>
-        <v>[146,1,1,5,'mstsurfactanttype',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[146,1,1,5,'mstsurfactanttype',1,8,8,None,1,'mstsurfactanttype'],</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5766,21 +6220,24 @@
       <c r="F148">
         <v>1</v>
       </c>
-      <c r="G148" s="2">
-        <v>8</v>
-      </c>
-      <c r="H148" s="2">
+      <c r="G148">
+        <v>8</v>
+      </c>
+      <c r="H148">
         <v>8</v>
       </c>
       <c r="J148">
         <v>1</v>
       </c>
-      <c r="L148" t="str">
+      <c r="K148" t="s">
+        <v>146</v>
+      </c>
+      <c r="M148" t="str">
         <f t="shared" si="2"/>
-        <v>[147,1,1,5,'mstsystolicbp',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[147,1,1,5,'mstsystolicbp',1,8,8,None,1,'mstsystolicbp'],</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5799,21 +6256,24 @@
       <c r="F149">
         <v>1</v>
       </c>
-      <c r="G149" s="2">
-        <v>8</v>
-      </c>
-      <c r="H149" s="2">
+      <c r="G149">
+        <v>8</v>
+      </c>
+      <c r="H149">
         <v>8</v>
       </c>
       <c r="J149">
         <v>1</v>
       </c>
-      <c r="L149" t="str">
+      <c r="K149" t="s">
+        <v>147</v>
+      </c>
+      <c r="M149" t="str">
         <f t="shared" si="2"/>
-        <v>[148,1,1,5,'msttemperature',1,8,8,None,1],</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>[148,1,1,5,'msttemperature',1,8,8,None,1,'msttemperature'],</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5832,18 +6292,21 @@
       <c r="F150">
         <v>1</v>
       </c>
-      <c r="G150" s="2">
-        <v>8</v>
-      </c>
-      <c r="H150" s="2">
+      <c r="G150">
+        <v>8</v>
+      </c>
+      <c r="H150">
         <v>8</v>
       </c>
       <c r="J150">
         <v>1</v>
       </c>
-      <c r="L150" t="str">
+      <c r="K150" t="s">
+        <v>148</v>
+      </c>
+      <c r="M150" t="str">
         <f t="shared" si="2"/>
-        <v>[149,1,1,5,'mstvegfdrugs',1,8,8,None,1],</v>
+        <v>[149,1,1,5,'mstvegfdrugs',1,8,8,None,1,'mstvegfdrugs'],</v>
       </c>
     </row>
   </sheetData>

--- a/Python/redcap/CNBP-REDCap Matrix.xlsx
+++ b/Python/redcap/CNBP-REDCap Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\GitHub\DICOMTransit\Python\redcap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lammar20\PycharmProjects\DICOMTransit\Python\redcap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="170">
   <si>
     <t>admission</t>
   </si>
@@ -474,9 +474,6 @@
   </si>
   <si>
     <t>mstvegfdrugs</t>
-  </si>
-  <si>
-    <t>2,3</t>
   </si>
   <si>
     <t>4,5</t>
@@ -899,41 +896,41 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -956,13 +953,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>149</v>
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -972,7 +969,7 @@
       </c>
       <c r="M2" t="str">
         <f>"["&amp;IF(A2="","None",A2)&amp;","&amp;IF(B2="","None",B2)&amp;","&amp;IF(C2="","None",C2)&amp;","&amp;IF(D2="","None",D2)&amp;",'"&amp;IF(E2="","None",E2)&amp;"',"&amp;IF(F2="","None",F2)&amp;","&amp;IF(G2="","None",G2)&amp;","&amp;IF(H2="","None",H2)&amp;","&amp;IF(I2="","None","["&amp;I2&amp;"]")&amp;","&amp;IF(J2="","None",J2)&amp;",'"&amp;IF(K2="","None",K2)&amp;"']"&amp;","</f>
-        <v>[1,1,0,1,'admission',1,1,1,[2,3],0,'admission'],</v>
+        <v>[1,1,0,1,'admission',1,2,2,[3],0,'admission'],</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2117,7 +2114,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2450,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="0"/>
@@ -2486,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="0"/>
@@ -2522,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="0"/>
@@ -2558,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" si="0"/>
@@ -2594,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="0"/>
@@ -2630,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="0"/>
@@ -2666,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" si="0"/>
@@ -2702,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="0"/>
